--- a/data/trans_dic/P37A-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P37A-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que con las horas que duerme, descansa lo suficiente</t>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,16%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>79,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>78,97%</t>
+          <t>78,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>77,2%</t>
+          <t>76,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>78,91%</t>
+          <t>75,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>78,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>71,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>72,01%</t>
+          <t>71,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>75,74%</t>
+          <t>71,6%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>74,21%</t>
+          <t>68,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>74,47%</t>
+          <t>67,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>65,6%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>75,24%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>73,78%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>74,09%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>71,84%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>73,18%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>68,26%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,86; 83,54</t>
+          <t>74,76; 82,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75,34; 81,97</t>
+          <t>74,82; 81,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72,69; 80,82</t>
+          <t>72,85; 80,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,62; 82,25</t>
+          <t>71,28; 79,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>68,24; 75,43</t>
+          <t>75,53; 82,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,54; 73,06</t>
+          <t>67,54; 74,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>68,58; 75,07</t>
+          <t>68,12; 74,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,21; 70,9</t>
+          <t>65,65; 72,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,15; 78,37</t>
+          <t>68,49; 74,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,75; 76,6</t>
+          <t>64,4; 72,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,55; 76,78</t>
+          <t>64,03; 70,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>70,81; 75,5</t>
+          <t>62,19; 68,46</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>72,55; 77,68</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>71,37; 75,9</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>71,61; 76,56</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>68,87; 74,6</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>70,76; 75,45</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>65,98; 71,1</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>81,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,75%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,41%</t>
+          <t>83,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>75,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>77,43%</t>
+          <t>78,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>72,02%</t>
+          <t>80,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>76,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>68,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>76,92%</t>
+          <t>63,59%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>65,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>71,78%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>79,04%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>76,72%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>75,86%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>69,57%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>72,42%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>76,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,8; 86,05</t>
+          <t>75,24; 85,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,08; 84,79</t>
+          <t>78,12; 85,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,78; 86,55</t>
+          <t>80,06; 86,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,97; 83,96</t>
+          <t>70,02; 79,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>73,16; 80,61</t>
+          <t>70,25; 84,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,35; 75,69</t>
+          <t>74,72; 84,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,24; 72,14</t>
+          <t>72,76; 80,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,49; 71,62</t>
+          <t>67,91; 75,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>76,24; 82,58</t>
+          <t>64,74; 72,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>74,49; 79,61</t>
+          <t>58,6; 68,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,95; 78,3</t>
+          <t>58,79; 71,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,28; 76,26</t>
+          <t>65,37; 77,3</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>75,73; 82,03</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>73,88; 78,98</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>73,17; 78,31</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>66,13; 73,13</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>67,9; 77,29</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>71,99; 79,84</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>81,85%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>83,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>86,66%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>69,12%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>72,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>71,65%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80,49%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>77,24%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>75,62%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>76,85%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>81,99%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>77,51%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>76,64%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>81,87%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>81,94%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,17; 88,52</t>
+          <t>73,97; 88,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,69; 87,92</t>
+          <t>74,96; 87,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,91; 90,22</t>
+          <t>70,58; 89,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>78,5; 92,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>60,11; 76,88</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,39; 78,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,22; 85,28</t>
+          <t>64,13; 79,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>64,78; 78,02</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>74,58; 86,03</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>68,55; 83,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>68,85; 81,84</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>72,02; 81,2</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>75,67; 86,34</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>71,65; 82,04</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>71,1; 81,14</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>74,85; 86,66</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>76,11; 86,21</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>80,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>80,44%</t>
+          <t>80,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>76,82%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>78,85%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>73,8%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>73,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>73,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>70,49%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>71,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>67,62%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>67,15%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>77,32%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>75,58%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>75,9%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>66,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>77,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>75,26%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>75,7%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>72,14%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>73,01%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>70,09%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,01; 83,59</t>
+          <t>77,16; 82,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,0; 82,71</t>
+          <t>77,86; 82,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,63; 82,99</t>
+          <t>77,53; 82,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,89; 81,77</t>
+          <t>73,76; 79,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,22; 76,2</t>
+          <t>75,62; 81,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,65; 73,04</t>
+          <t>69,93; 75,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,02; 73,87</t>
+          <t>71,11; 76,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,11; 69,79</t>
+          <t>68,1; 72,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>75,3; 79,1</t>
+          <t>68,82; 73,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,9; 77,24</t>
+          <t>64,62; 70,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,94; 77,59</t>
+          <t>64,07; 70,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,74; 75,0</t>
+          <t>64,02; 69,75</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>75,29; 79,03</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>73,55; 76,93</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>73,78; 77,27</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>70,1; 74,08</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>70,8; 75,16</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>67,85; 72,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,16%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>528.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>520.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>463.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>562.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>602.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>555.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>936.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1090.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1122.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>786.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1089.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1018.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1280556</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1285538</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1245027</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1221973</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>179510</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>159086</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1278446</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1241262</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1285722</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1207107</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>158657</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>151610</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2559002</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2526800</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2530749</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2429081</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>338166</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>310696</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1209575; 1340510</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1221777; 1336918</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1180189; 1302618</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1153949; 1283947</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>171795; 186989</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>151331; 167131</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1214656; 1335869</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1176431; 1294503</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1229934; 1343956</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1134975; 1276463</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>150229; 166271</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>143725; 158223</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2467545; 2642063</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2444188; 2599651</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2445853; 2614957</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2328640; 2522577</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>326964; 348655</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>300329; 323614</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>417.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>764.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>868.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>839.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>630.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1102079</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1116019</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1126121</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1033877</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56638</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57528</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1049288</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>969711</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>920487</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>861801</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41657</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>46606</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2151366</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2085731</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2046608</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1895679</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>98295</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>104133</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1020672; 1156372</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1068223; 1162974</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1080687; 1166599</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>959024; 1093394</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50607; 60611</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>53593; 60736</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>993294; 1102763</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>917687; 1017772</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>872915; 972180</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>794264; 922629</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>37445; 45743</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42444; 50193</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2061176; 2232660</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2008693; 2147171</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1974013; 2112914</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1802080; 1992912</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>92157; 104905</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>98379; 109101</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>339163</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>334807</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>347521</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>353312</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>287265</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>289518</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>323531</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>316428</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>626427</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>624324</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>671052</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>669740</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>304466; 364069</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>307719; 360596</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>294826; 375194</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>320065; 375840</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>254318; 314907</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>261771; 315272</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>299763; 345779</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>280822; 343695</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>579078; 662989</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>579184; 661019</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>613526; 710346</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>622101; 704670</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>921.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1068.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1059.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>726.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>655.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>967.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1127.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1153.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>811.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>702.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1888.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2195.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2212.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1587.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1428.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1363.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2721798</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2736365</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2718669</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2609163</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>236148</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>216614</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2614998</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2500491</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2529740</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2385336</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>200313</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>198216</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5336796</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>5236855</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5248409</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4994499</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>436461</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>414830</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2612906; 2804180</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2655948; 2809041</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2626425; 2798131</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2505139; 2700940</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>226491; 244496</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>206846; 224481</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2520650; 2698850</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2415805; 2575815</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2440320; 2608010</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2279605; 2482030</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>191129; 209221</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>189542; 206494</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5218079; 5477782</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5117684; 5353035</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5115181; 5357345</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>4853792; 5129240</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>423252; 449324</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>401533; 426691</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
